--- a/clockshift/data/very_short_dimer_pulse/results_df.xlsx
+++ b/clockshift/data/very_short_dimer_pulse/results_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="173">
   <si>
     <t>VVA</t>
   </si>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>em_spectral_weight</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>em_Id</t>
+  </si>
+  <si>
+    <t>Id2</t>
+  </si>
+  <si>
+    <t>em_Id2</t>
   </si>
   <si>
     <t>scaledtime</t>
@@ -878,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FK12"/>
+  <dimension ref="A1:FO12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:167">
+    <row r="1" spans="1:171">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,8 +1395,20 @@
       <c r="FK1" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="FL1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="2" spans="1:167">
+    <row r="2" spans="1:171">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1848,7 +1872,7 @@
         <v>60.05953910979497</v>
       </c>
       <c r="EY2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="EZ2">
         <v>1.76</v>
@@ -1884,10 +1908,22 @@
         <v>0.0006615427963517245</v>
       </c>
       <c r="FK2">
+        <v>0.02032916597397404</v>
+      </c>
+      <c r="FL2">
+        <v>0.001323085592703449</v>
+      </c>
+      <c r="FM2">
+        <v>0.02032916597397404</v>
+      </c>
+      <c r="FN2">
+        <v>0.04036294525727084</v>
+      </c>
+      <c r="FO2">
         <v>2.010619298297468</v>
       </c>
     </row>
-    <row r="3" spans="1:167">
+    <row r="3" spans="1:171">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2351,7 +2387,7 @@
         <v>52.81149643600316</v>
       </c>
       <c r="EY3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="EZ3">
         <v>2.32</v>
@@ -2387,10 +2423,22 @@
         <v>0.001352212424042216</v>
       </c>
       <c r="FK3">
+        <v>0.01833326931343057</v>
+      </c>
+      <c r="FL3">
+        <v>0.002704424848084432</v>
+      </c>
+      <c r="FM3">
+        <v>0.01833326931343057</v>
+      </c>
+      <c r="FN3">
+        <v>0.03583937842383522</v>
+      </c>
+      <c r="FO3">
         <v>1.005309649148734</v>
       </c>
     </row>
-    <row r="4" spans="1:167">
+    <row r="4" spans="1:171">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2854,7 +2902,7 @@
         <v>43.89514614415864</v>
       </c>
       <c r="EY4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="EZ4">
         <v>2.72</v>
@@ -2890,10 +2938,22 @@
         <v>0.001617637893074273</v>
       </c>
       <c r="FK4">
+        <v>0.01933140774679748</v>
+      </c>
+      <c r="FL4">
+        <v>0.003235275786148545</v>
+      </c>
+      <c r="FM4">
+        <v>0.01933140774679748</v>
+      </c>
+      <c r="FN4">
+        <v>0.02887717980574259</v>
+      </c>
+      <c r="FO4">
         <v>0.7037167544041136</v>
       </c>
     </row>
-    <row r="5" spans="1:167">
+    <row r="5" spans="1:171">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3357,7 +3417,7 @@
         <v>43.79329168402504</v>
       </c>
       <c r="EY5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="EZ5">
         <v>3.3</v>
@@ -3393,10 +3453,22 @@
         <v>0.002002791877611243</v>
       </c>
       <c r="FK5">
+        <v>0.02026028847516968</v>
+      </c>
+      <c r="FL5">
+        <v>0.004005583755222485</v>
+      </c>
+      <c r="FM5">
+        <v>0.02026028847516968</v>
+      </c>
+      <c r="FN5">
+        <v>0.02684993799484115</v>
+      </c>
+      <c r="FO5">
         <v>0.5026548245743669</v>
       </c>
     </row>
-    <row r="6" spans="1:167">
+    <row r="6" spans="1:171">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3860,7 +3932,7 @@
         <v>49.55927022791969</v>
       </c>
       <c r="EY6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="EZ6">
         <v>3.96</v>
@@ -3896,10 +3968,22 @@
         <v>0.003952073029288489</v>
       </c>
       <c r="FK6">
+        <v>0.00799211564480469</v>
+      </c>
+      <c r="FL6">
+        <v>0.007904146058576977</v>
+      </c>
+      <c r="FM6">
+        <v>0.00799211564480469</v>
+      </c>
+      <c r="FN6">
+        <v>0.02746612673995838</v>
+      </c>
+      <c r="FO6">
         <v>0.3015928947446201</v>
       </c>
     </row>
-    <row r="7" spans="1:167">
+    <row r="7" spans="1:171">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4363,7 +4447,7 @@
         <v>46.76167839703336</v>
       </c>
       <c r="EY7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="EZ7">
         <v>4.2</v>
@@ -4399,10 +4483,22 @@
         <v>0.02983239832064673</v>
       </c>
       <c r="FK7">
+        <v>0.01615319023253097</v>
+      </c>
+      <c r="FL7">
+        <v>0.05966479664129347</v>
+      </c>
+      <c r="FM7">
+        <v>0.01615319023253097</v>
+      </c>
+      <c r="FN7">
+        <v>0.02591351505407927</v>
+      </c>
+      <c r="FO7">
         <v>0.1005309649148734</v>
       </c>
     </row>
-    <row r="8" spans="1:167">
+    <row r="8" spans="1:171">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4866,7 +4962,7 @@
         <v>26.79430318421101</v>
       </c>
       <c r="EY8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="EZ8">
         <v>0.88</v>
@@ -4902,10 +4998,22 @@
         <v>0.0009944232301439234</v>
       </c>
       <c r="FK8">
+        <v>0.009018079853439083</v>
+      </c>
+      <c r="FL8">
+        <v>0.001988846460287847</v>
+      </c>
+      <c r="FM8">
+        <v>0.009018079853439083</v>
+      </c>
+      <c r="FN8">
+        <v>0.01516827430598965</v>
+      </c>
+      <c r="FO8">
         <v>2.010619298297468</v>
       </c>
     </row>
-    <row r="9" spans="1:167">
+    <row r="9" spans="1:171">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -5369,7 +5477,7 @@
         <v>28.32715009797159</v>
       </c>
       <c r="EY9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="EZ9">
         <v>4.2</v>
@@ -5405,10 +5513,22 @@
         <v>0.001646433048725576</v>
       </c>
       <c r="FK9">
+        <v>0.01387268422188236</v>
+      </c>
+      <c r="FL9">
+        <v>0.003292866097451152</v>
+      </c>
+      <c r="FM9">
+        <v>0.01387268422188236</v>
+      </c>
+      <c r="FN9">
+        <v>0.01287136904703377</v>
+      </c>
+      <c r="FO9">
         <v>0.3015928947446201</v>
       </c>
     </row>
-    <row r="10" spans="1:167">
+    <row r="10" spans="1:171">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -5872,7 +5992,7 @@
         <v>44.80742556465461</v>
       </c>
       <c r="EY10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="EZ10">
         <v>0.4</v>
@@ -5908,10 +6028,22 @@
         <v>0.001040069233730162</v>
       </c>
       <c r="FK10">
+        <v>0.005042131431230873</v>
+      </c>
+      <c r="FL10">
+        <v>0.002080138467460324</v>
+      </c>
+      <c r="FM10">
+        <v>0.005042131431230873</v>
+      </c>
+      <c r="FN10">
+        <v>0.02048621934065901</v>
+      </c>
+      <c r="FO10">
         <v>5.026548245743669</v>
       </c>
     </row>
-    <row r="11" spans="1:167">
+    <row r="11" spans="1:171">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -6375,7 +6507,7 @@
         <v>35.96000393422499</v>
       </c>
       <c r="EY11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="EZ11">
         <v>0.72</v>
@@ -6411,10 +6543,22 @@
         <v>0.001204418358200418</v>
       </c>
       <c r="FK11">
+        <v>0.01390026637591452</v>
+      </c>
+      <c r="FL11">
+        <v>0.002408836716400835</v>
+      </c>
+      <c r="FM11">
+        <v>0.01390026637591451</v>
+      </c>
+      <c r="FN11">
+        <v>0.02767097398937977</v>
+      </c>
+      <c r="FO11">
         <v>3.015928947446201</v>
       </c>
     </row>
-    <row r="12" spans="1:167">
+    <row r="12" spans="1:171">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -6878,7 +7022,7 @@
         <v>36.97700002913987</v>
       </c>
       <c r="EY12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="EZ12">
         <v>1.24</v>
@@ -6914,6 +7058,18 @@
         <v>0.001105519091269808</v>
       </c>
       <c r="FK12">
+        <v>0.01656382164912978</v>
+      </c>
+      <c r="FL12">
+        <v>0.002211038182539616</v>
+      </c>
+      <c r="FM12">
+        <v>0.01656382164912977</v>
+      </c>
+      <c r="FN12">
+        <v>0.01883352932055108</v>
+      </c>
+      <c r="FO12">
         <v>1.507964473723101</v>
       </c>
     </row>
